--- a/results/2025-26/schBotolaD2/CalendarD2-v0/fullCalendarD2.xlsx
+++ b/results/2025-26/schBotolaD2/CalendarD2-v0/fullCalendarD2.xlsx
@@ -74,166 +74,166 @@
     <t/>
   </si>
   <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>WAC</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>23/08/2025</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>RAC</t>
+  </si>
+  <si>
+    <t>JSS</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>CJBG</t>
+  </si>
+  <si>
     <t>FAR</t>
   </si>
   <si>
+    <t>DHJ</t>
+  </si>
+  <si>
+    <t>FUS</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>24/08/2025</t>
+  </si>
+  <si>
+    <t>KAC</t>
+  </si>
+  <si>
+    <t>RBM</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>JSM</t>
+  </si>
+  <si>
+    <t>USMO</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>IRT</t>
+  </si>
+  <si>
+    <t>OCS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>CODM</t>
+  </si>
+  <si>
     <t>RCA</t>
   </si>
   <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>23/08/2025</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>RAC</t>
-  </si>
-  <si>
-    <t>JSS</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>WST</t>
-  </si>
-  <si>
-    <t>CJBG</t>
-  </si>
-  <si>
-    <t>MAS</t>
+    <t>30/08/2025</t>
   </si>
   <si>
     <t>RCAZ</t>
   </si>
   <si>
+    <t>UTS</t>
+  </si>
+  <si>
+    <t>31/08/2025</t>
+  </si>
+  <si>
     <t>HUSA</t>
   </si>
   <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>24/08/2025</t>
-  </si>
-  <si>
-    <t>KAC</t>
-  </si>
-  <si>
-    <t>RBM</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>JSM</t>
-  </si>
-  <si>
-    <t>USMO</t>
-  </si>
-  <si>
-    <t>IRT</t>
-  </si>
-  <si>
-    <t>UTS</t>
-  </si>
-  <si>
-    <t>OCS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>29/08/2025</t>
+    <t>KACM</t>
+  </si>
+  <si>
+    <t>USYM</t>
+  </si>
+  <si>
+    <t>FIFA</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>06/09/2025</t>
+  </si>
+  <si>
+    <t>07/09/2025</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>13/09/2025</t>
+  </si>
+  <si>
+    <t>14/09/2025</t>
   </si>
   <si>
     <t>RSB</t>
-  </si>
-  <si>
-    <t>WAC</t>
-  </si>
-  <si>
-    <t>30/08/2025</t>
-  </si>
-  <si>
-    <t>USYM</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>31/08/2025</t>
-  </si>
-  <si>
-    <t>KACM</t>
-  </si>
-  <si>
-    <t>CODM</t>
-  </si>
-  <si>
-    <t>DHJ</t>
-  </si>
-  <si>
-    <t>FIFA</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>01/09/2025</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>02/09/2025</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>03/09/2025</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>04/09/2025</t>
-  </si>
-  <si>
-    <t>05/09/2025</t>
-  </si>
-  <si>
-    <t>06/09/2025</t>
-  </si>
-  <si>
-    <t>07/09/2025</t>
-  </si>
-  <si>
-    <t>08/09/2025</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>12/09/2025</t>
-  </si>
-  <si>
-    <t>13/09/2025</t>
-  </si>
-  <si>
-    <t>14/09/2025</t>
-  </si>
-  <si>
-    <t>FUS</t>
   </si>
   <si>
     <t>4</t>
@@ -1276,34 +1276,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -3022,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="s" s="300">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s" s="301">
         <v>18</v>
@@ -3045,7 +3045,7 @@
         <v>18</v>
       </c>
       <c r="F45" t="s" s="307">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s" s="308">
         <v>18</v>
@@ -3053,25 +3053,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="309">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s" s="310">
         <v>68</v>
       </c>
       <c r="C46" t="s" s="311">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s" s="312">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s" s="313">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s" s="314">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s" s="315">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -3088,13 +3088,13 @@
         <v>70</v>
       </c>
       <c r="E47" t="s" s="320">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s" s="321">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s" s="322">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
@@ -3111,18 +3111,18 @@
         <v>70</v>
       </c>
       <c r="E48" t="s" s="327">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s" s="328">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s" s="329">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="330">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s" s="331">
         <v>68</v>
@@ -3134,13 +3134,13 @@
         <v>70</v>
       </c>
       <c r="E49" t="s" s="334">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s" s="335">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="336">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -3160,7 +3160,7 @@
         <v>18</v>
       </c>
       <c r="F50" t="s" s="342">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="343">
         <v>18</v>
@@ -3183,7 +3183,7 @@
         <v>18</v>
       </c>
       <c r="F51" t="s" s="349">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s" s="350">
         <v>18</v>
@@ -3191,25 +3191,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="351">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s" s="352">
         <v>68</v>
       </c>
       <c r="C52" t="s" s="353">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s" s="354">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s" s="355">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s" s="356">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s" s="357">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
@@ -3226,13 +3226,13 @@
         <v>71</v>
       </c>
       <c r="E53" t="s" s="362">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s" s="363">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s" s="364">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
@@ -3249,18 +3249,18 @@
         <v>71</v>
       </c>
       <c r="E54" t="s" s="369">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s" s="370">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G54" t="s" s="371">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="372">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s" s="373">
         <v>68</v>
@@ -3272,13 +3272,13 @@
         <v>71</v>
       </c>
       <c r="E55" t="s" s="376">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s" s="377">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s" s="378">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -3298,7 +3298,7 @@
         <v>18</v>
       </c>
       <c r="F56" t="s" s="384">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s" s="385">
         <v>18</v>
@@ -3321,7 +3321,7 @@
         <v>18</v>
       </c>
       <c r="F57" t="s" s="391">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s" s="392">
         <v>18</v>
@@ -3344,7 +3344,7 @@
         <v>18</v>
       </c>
       <c r="F58" t="s" s="398">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="399">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         <v>18</v>
       </c>
       <c r="F59" t="s" s="405">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="406">
         <v>18</v>
@@ -3381,16 +3381,16 @@
         <v>73</v>
       </c>
       <c r="C60" t="s" s="409">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s" s="410">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s" s="411">
         <v>18</v>
       </c>
       <c r="F60" t="s" s="412">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s" s="413">
         <v>18</v>
@@ -3413,7 +3413,7 @@
         <v>18</v>
       </c>
       <c r="F61" t="s" s="419">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s" s="420">
         <v>18</v>
@@ -3436,7 +3436,7 @@
         <v>18</v>
       </c>
       <c r="F62" t="s" s="426">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="427">
         <v>18</v>
@@ -3666,7 +3666,7 @@
         <v>18</v>
       </c>
       <c r="F72" t="s" s="496">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G72" t="s" s="497">
         <v>18</v>
@@ -3689,7 +3689,7 @@
         <v>18</v>
       </c>
       <c r="F73" t="s" s="503">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="504">
         <v>18</v>
@@ -3827,7 +3827,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="s" s="545">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s" s="546">
         <v>18</v>
@@ -3850,7 +3850,7 @@
         <v>18</v>
       </c>
       <c r="F80" t="s" s="552">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="G80" t="s" s="553">
         <v>18</v>
@@ -3873,7 +3873,7 @@
         <v>18</v>
       </c>
       <c r="F81" t="s" s="559">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s" s="560">
         <v>18</v>
@@ -3896,7 +3896,7 @@
         <v>18</v>
       </c>
       <c r="F82" t="s" s="566">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s" s="567">
         <v>18</v>
@@ -3919,7 +3919,7 @@
         <v>18</v>
       </c>
       <c r="F83" t="s" s="573">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G83" t="s" s="574">
         <v>18</v>
@@ -4149,7 +4149,7 @@
         <v>18</v>
       </c>
       <c r="F93" t="s" s="643">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="644">
         <v>18</v>
@@ -4157,48 +4157,48 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="645">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s" s="646">
         <v>81</v>
       </c>
       <c r="C94" t="s" s="647">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s" s="648">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E94" t="s" s="649">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F94" t="s" s="650">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G94" t="s" s="651">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="652">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s" s="653">
         <v>81</v>
       </c>
       <c r="C95" t="s" s="654">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s" s="655">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E95" t="s" s="656">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F95" t="s" s="657">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s" s="658">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -4215,21 +4215,21 @@
         <v>88</v>
       </c>
       <c r="E96" t="s" s="663">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s" s="664">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s" s="665">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="666">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s" s="667">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s" s="668">
         <v>33</v>
@@ -4238,21 +4238,21 @@
         <v>88</v>
       </c>
       <c r="E97" t="s" s="670">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s" s="671">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="G97" t="s" s="672">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="673">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s" s="674">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s" s="675">
         <v>33</v>
@@ -4261,21 +4261,21 @@
         <v>88</v>
       </c>
       <c r="E98" t="s" s="677">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s" s="678">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="G98" t="s" s="679">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="680">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s" s="681">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s" s="682">
         <v>33</v>
@@ -4287,7 +4287,7 @@
         <v>18</v>
       </c>
       <c r="F99" t="s" s="685">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G99" t="s" s="686">
         <v>18</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="687">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s" s="688">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s" s="689">
         <v>33</v>
@@ -4310,7 +4310,7 @@
         <v>18</v>
       </c>
       <c r="F100" t="s" s="692">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="G100" t="s" s="693">
         <v>18</v>
@@ -4333,7 +4333,7 @@
         <v>18</v>
       </c>
       <c r="F101" t="s" s="699">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s" s="700">
         <v>18</v>
